--- a/Faecal sludge Analysis_05112023.xlsx
+++ b/Faecal sludge Analysis_05112023.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lschoebitz/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lschoebitz/Documents/gitrepos/gh-org-ds4owd/samples-rainbow-train/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{814D9A82-C6A0-9B4C-93AB-9F833796B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C910DF77-EE0D-E145-821B-434DB3E5C060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42640" yWindow="-2520" windowWidth="31800" windowHeight="23820" xr2:uid="{AEC4E5B3-730B-6543-99D3-B0101A88CCE1}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{AEC4E5B3-730B-6543-99D3-B0101A88CCE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
-  <si>
-    <t>location</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>TS (g/L)</t>
   </si>
@@ -225,15 +222,6 @@
     <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -243,6 +231,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,106 +557,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAEE48AC-E37C-EC47-97B0-4ADFF1EA3012}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" style="11" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="11">
+      <c r="A1" s="15">
         <v>45231</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5">
         <v>5</v>
       </c>
-      <c r="B3" s="6">
+      <c r="C3" s="6">
         <v>136.24</v>
       </c>
-      <c r="C3" s="5">
-        <v>5</v>
-      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="6">
+      <c r="A4" s="13"/>
+      <c r="B4" s="5">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6">
         <v>142.22</v>
       </c>
-      <c r="C4" s="5">
-        <v>7</v>
-      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="6">
+      <c r="A5" s="13"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6">
         <v>98.33</v>
       </c>
-      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="6">
+      <c r="A6" s="13"/>
+      <c r="B6" s="5">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6">
         <v>15.92</v>
       </c>
-      <c r="C6" s="5">
-        <v>6</v>
-      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="6">
+      <c r="A7" s="14"/>
+      <c r="B7" s="5">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6">
         <v>97.27</v>
-      </c>
-      <c r="C7" s="5">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="8">
         <f>AVERAGE(B3:B7)</f>
-        <v>97.996000000000009</v>
+        <v>7.5</v>
       </c>
       <c r="C8" s="8">
         <f>AVERAGE(C3:C7)</f>
-        <v>7.5</v>
+        <v>97.996000000000009</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="8">
         <f>STDEV(B3:B7)</f>
-        <v>50.387186168707615</v>
+        <v>3.1091263510296048</v>
       </c>
       <c r="C9" s="8">
         <f>STDEV(C3:C7)</f>
-        <v>3.1091263510296048</v>
+        <v>50.387186168707615</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -668,95 +665,95 @@
       <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="15">
         <v>45232</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="6">
+      <c r="A13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="5">
+        <v>7</v>
+      </c>
+      <c r="C13" s="6">
         <v>78.209999999999994</v>
       </c>
-      <c r="C13" s="5">
-        <v>7</v>
-      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="6">
+      <c r="A14" s="13"/>
+      <c r="B14" s="5">
+        <v>14</v>
+      </c>
+      <c r="C14" s="6">
         <v>15.24</v>
       </c>
-      <c r="C14" s="5">
-        <v>14</v>
-      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="6">
+      <c r="A15" s="13"/>
+      <c r="B15" s="5">
+        <v>4</v>
+      </c>
+      <c r="C15" s="6">
         <v>29.39</v>
       </c>
-      <c r="C15" s="5">
-        <v>4</v>
-      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="6">
+      <c r="A16" s="13"/>
+      <c r="B16" s="5">
+        <v>10</v>
+      </c>
+      <c r="C16" s="6">
         <v>64.22</v>
       </c>
-      <c r="C16" s="5">
-        <v>10</v>
-      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="6">
+      <c r="A17" s="14"/>
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6">
         <v>8.01</v>
-      </c>
-      <c r="C17" s="5">
-        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" s="8">
         <f>AVERAGE(B13:B17)</f>
-        <v>39.013999999999996</v>
+        <v>9.4</v>
       </c>
       <c r="C18" s="8">
         <f>AVERAGE(C13:C17)</f>
-        <v>9.4</v>
+        <v>39.013999999999996</v>
       </c>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" s="8">
         <f>STDEV(B13:B17)</f>
-        <v>30.78449820932607</v>
+        <v>3.9749213828703578</v>
       </c>
       <c r="C19" s="8">
         <f>STDEV(C13:C17)</f>
-        <v>3.9749213828703578</v>
+        <v>30.78449820932607</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -765,94 +762,94 @@
       <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:11" ht="23" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+      <c r="A21" s="15">
         <v>45233</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="6">
+      <c r="A23" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="5">
+        <v>50</v>
+      </c>
+      <c r="C23" s="6">
         <v>11.24</v>
       </c>
-      <c r="C23" s="5">
-        <v>50</v>
-      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="6">
+      <c r="A24" s="13"/>
+      <c r="B24" s="5">
+        <v>32</v>
+      </c>
+      <c r="C24" s="6">
         <v>84.05</v>
       </c>
-      <c r="C24" s="5">
-        <v>32</v>
-      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="6">
+      <c r="A25" s="13"/>
+      <c r="B25" s="5">
+        <v>41</v>
+      </c>
+      <c r="C25" s="6">
         <v>55.92</v>
       </c>
-      <c r="C25" s="5">
-        <v>41</v>
-      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="6">
+      <c r="A26" s="13"/>
+      <c r="B26" s="5">
+        <v>160</v>
+      </c>
+      <c r="C26" s="6">
         <v>15.32</v>
       </c>
-      <c r="C26" s="5">
-        <v>160</v>
-      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="17"/>
-      <c r="B27" s="6">
+      <c r="A27" s="14"/>
+      <c r="B27" s="5">
+        <v>20</v>
+      </c>
+      <c r="C27" s="6">
         <v>22.65</v>
-      </c>
-      <c r="C27" s="5">
-        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" s="8">
         <f>AVERAGE(B23:B27)</f>
-        <v>37.835999999999999</v>
+        <v>60.6</v>
       </c>
       <c r="C28" s="8">
         <f>AVERAGE(C23:C27)</f>
-        <v>60.6</v>
+        <v>37.835999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" s="8">
         <f>STDEV(B23:B27)</f>
-        <v>31.255787144143401</v>
+        <v>56.663921502133967</v>
       </c>
       <c r="C29" s="8">
         <f>STDEV(C23:C27)</f>
-        <v>56.663921502133967</v>
+        <v>31.255787144143401</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -861,94 +858,94 @@
       <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:11" ht="23" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
+      <c r="A31" s="15">
         <v>45234</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="6">
+      <c r="A33" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="5">
+        <v>26</v>
+      </c>
+      <c r="C33" s="6">
         <v>8.7200000000000006</v>
       </c>
-      <c r="C33" s="5">
-        <v>26</v>
-      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
-      <c r="B34" s="6">
+      <c r="A34" s="13"/>
+      <c r="B34" s="5">
+        <v>91</v>
+      </c>
+      <c r="C34" s="6">
         <v>43.92</v>
       </c>
-      <c r="C34" s="5">
-        <v>91</v>
-      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
-      <c r="B35" s="6">
+      <c r="A35" s="13"/>
+      <c r="B35" s="5">
+        <v>68</v>
+      </c>
+      <c r="C35" s="6">
         <v>10.37</v>
       </c>
-      <c r="C35" s="5">
-        <v>68</v>
-      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
-      <c r="B36" s="6">
+      <c r="A36" s="13"/>
+      <c r="B36" s="5">
+        <v>112</v>
+      </c>
+      <c r="C36" s="6">
         <v>23.21</v>
       </c>
-      <c r="C36" s="5">
-        <v>112</v>
-      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="17"/>
-      <c r="B37" s="6">
+      <c r="A37" s="14"/>
+      <c r="B37" s="5">
+        <v>59</v>
+      </c>
+      <c r="C37" s="6">
         <v>15.64</v>
-      </c>
-      <c r="C37" s="5">
-        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38" s="8">
         <f>AVERAGE(B33:B37)</f>
-        <v>20.372</v>
+        <v>71.2</v>
       </c>
       <c r="C38" s="8">
         <f>AVERAGE(C33:C37)</f>
-        <v>71.2</v>
+        <v>20.372</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39" s="8">
         <f>STDEV(B33:B37)</f>
-        <v>14.324484982015937</v>
+        <v>32.629741034828946</v>
       </c>
       <c r="C39" s="8">
         <f>STDEV(C33:C37)</f>
-        <v>32.629741034828946</v>
+        <v>14.324484982015937</v>
       </c>
     </row>
   </sheetData>

--- a/Faecal sludge Analysis_05112023.xlsx
+++ b/Faecal sludge Analysis_05112023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lschoebitz/Documents/gitrepos/gh-org-ds4owd/samples-rainbow-train/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C910DF77-EE0D-E145-821B-434DB3E5C060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5EE244-93C3-1F41-BF6D-546E6F00A081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{AEC4E5B3-730B-6543-99D3-B0101A88CCE1}"/>
   </bookViews>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAEE48AC-E37C-EC47-97B0-4ADFF1EA3012}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -877,7 +877,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B33" s="5">
         <v>26</v>

--- a/Faecal sludge Analysis_05112023.xlsx
+++ b/Faecal sludge Analysis_05112023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lschoebitz/Documents/gitrepos/gh-org-ds4owd/samples-rainbow-train/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5EE244-93C3-1F41-BF6D-546E6F00A081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84744F41-5002-F94D-91E1-DD0A13F41377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{AEC4E5B3-730B-6543-99D3-B0101A88CCE1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
   <si>
     <t>TS (g/L)</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>system_location</t>
+  </si>
+  <si>
+    <t>septic tank_public toilet</t>
   </si>
 </sst>
 </file>
@@ -557,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAEE48AC-E37C-EC47-97B0-4ADFF1EA3012}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -605,14 +608,14 @@
         <v>7</v>
       </c>
       <c r="C4" s="6">
-        <v>142.22</v>
+        <v>102.45</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6">
-        <v>98.33</v>
+        <v>57.02</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -621,7 +624,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="6">
-        <v>15.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -643,7 +646,7 @@
       </c>
       <c r="C8" s="8">
         <f>AVERAGE(C3:C7)</f>
-        <v>97.996000000000009</v>
+        <v>84.001999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -656,7 +659,7 @@
       </c>
       <c r="C9" s="8">
         <f>STDEV(C3:C7)</f>
-        <v>50.387186168707615</v>
+        <v>42.482391293334686</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -877,7 +880,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B33" s="5">
         <v>26</v>
